--- a/test_case_excel/car_v2/app/test_login_app.xlsx
+++ b/test_case_excel/car_v2/app/test_login_app.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\auto_API_test\test_case_excel\car_v2\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFD6F98-8168-476F-81A2-E642E40E2220}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D5A470-2858-4564-8EEF-D6111897D2D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="2010" windowWidth="24120" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24735" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>case_id</t>
   </si>
@@ -99,6 +99,22 @@
 	"android_version": "2.2.4",
 	"client_id": "cfe801233319bc70388d8f98a53bc834"
 }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code': 422}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code': 200083}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'code': 0}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,21 +485,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="26.125" customWidth="1"/>
-    <col min="4" max="4" width="51.75" customWidth="1"/>
-    <col min="5" max="5" width="45.25" customWidth="1"/>
-    <col min="6" max="6" width="82.125" customWidth="1"/>
+    <col min="4" max="5" width="51.75" customWidth="1"/>
+    <col min="6" max="6" width="45.25" customWidth="1"/>
+    <col min="7" max="7" width="82.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,19 +513,22 @@
         <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -522,10 +541,13 @@
       <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -538,8 +560,11 @@
       <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -551,6 +576,9 @@
       </c>
       <c r="D4" s="3" t="s">
         <v>15</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
